--- a/4-文件资料/1-HIS系统需求/HIS数据库设计.xlsx
+++ b/4-文件资料/1-HIS系统需求/HIS数据库设计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文件资料\论文及学术资料\前端学习\Open-Source-HIS\4-文件资料\1-HIS系统需求\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C4BC9B-644F-4D5E-8DFB-F703421F00B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7115A88E-2373-4CE8-8925-A6267BF6B4EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="员工信息" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="488">
   <si>
     <t>名字</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1967,6 +1967,14 @@
   </si>
   <si>
     <t>如：手套、口罩、拖把、土豆等</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>inpatient-out-reason</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>出院理由</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2212,7 +2220,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2290,6 +2298,15 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2314,21 +2331,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2338,13 +2340,22 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
@@ -2356,13 +2367,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
@@ -2405,9 +2413,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2714,37 +2719,37 @@
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="45"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="37"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D3" s="74" t="s">
+      <c r="D3" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E3" s="74" t="s">
+      <c r="E3" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="F3" s="74" t="s">
+      <c r="F3" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="G3" s="74" t="s">
+      <c r="G3" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H3" s="74" t="s">
+      <c r="H3" s="1" t="s">
         <v>173</v>
       </c>
       <c r="I3" s="6" t="s">
@@ -2755,22 +2760,22 @@
       <c r="B4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="74" t="s">
+      <c r="D4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="74" t="s">
+      <c r="E4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="74" t="s">
+      <c r="F4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="74" t="s">
+      <c r="G4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="74" t="s">
+      <c r="H4" s="1" t="s">
         <v>31</v>
       </c>
       <c r="I4" s="6" t="s">
@@ -2805,16 +2810,16 @@
     </row>
     <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="45"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="37"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
@@ -2835,10 +2840,10 @@
       <c r="G8" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="H8" s="41" t="s">
+      <c r="H8" s="44" t="s">
         <v>177</v>
       </c>
-      <c r="I8" s="42"/>
+      <c r="I8" s="45"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9" s="11" t="s">
@@ -2859,10 +2864,10 @@
       <c r="G9" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H9" s="41" t="s">
+      <c r="H9" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="I9" s="42"/>
+      <c r="I9" s="45"/>
     </row>
     <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
@@ -2883,25 +2888,25 @@
       <c r="G10" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="H10" s="39" t="s">
+      <c r="H10" s="42" t="s">
         <v>322</v>
       </c>
-      <c r="I10" s="40"/>
+      <c r="I10" s="43"/>
     </row>
     <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="35" t="s">
         <v>317</v>
       </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="45"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="37"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="C13" s="36"/>
+      <c r="C13" s="39"/>
       <c r="D13" s="1" t="s">
         <v>320</v>
       </c>
@@ -2910,10 +2915,10 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="36"/>
+      <c r="B14" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="39"/>
       <c r="D14" s="1" t="s">
         <v>161</v>
       </c>
@@ -2922,10 +2927,10 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="C15" s="38"/>
+      <c r="C15" s="41"/>
       <c r="D15" s="8" t="s">
         <v>318</v>
       </c>
@@ -2935,15 +2940,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
     <mergeCell ref="B7:I7"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2970,11 +2975,11 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="35" t="s">
         <v>323</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="45"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="37"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
@@ -3011,11 +3016,11 @@
     </row>
     <row r="6" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="35" t="s">
         <v>326</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="45"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="37"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
@@ -3052,12 +3057,12 @@
     </row>
     <row r="11" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="35" t="s">
         <v>332</v>
       </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="45"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="37"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="11" t="s">
@@ -3103,13 +3108,13 @@
     </row>
     <row r="16" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="35" t="s">
         <v>335</v>
       </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="45"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="37"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="11" t="s">
@@ -3192,12 +3197,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="35" t="s">
         <v>347</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="45"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
@@ -3243,12 +3248,12 @@
     </row>
     <row r="6" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="35" t="s">
         <v>355</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="45"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="37"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
@@ -3294,12 +3299,12 @@
     </row>
     <row r="11" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="35" t="s">
         <v>361</v>
       </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="45"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="37"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="11" t="s">
@@ -3373,13 +3378,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="35" t="s">
         <v>370</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="45"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="37"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
@@ -3434,13 +3439,13 @@
     </row>
     <row r="6" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="35" t="s">
         <v>381</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="45"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="37"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
@@ -3495,10 +3500,10 @@
     </row>
     <row r="11" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="35" t="s">
         <v>395</v>
       </c>
-      <c r="C12" s="45"/>
+      <c r="C12" s="37"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" s="11" t="s">
@@ -3558,10 +3563,10 @@
     </row>
     <row r="20" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="35" t="s">
         <v>403</v>
       </c>
-      <c r="C21" s="45"/>
+      <c r="C21" s="37"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" s="11" t="s">
@@ -3611,7 +3616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{238CEAA6-8198-4998-9BB2-42DA308415EC}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -4297,14 +4302,14 @@
   <sheetData>
     <row r="1" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="50"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="48"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -4410,14 +4415,14 @@
       <c r="N6" s="2"/>
     </row>
     <row r="7" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="50"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="48"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -4433,14 +4438,14 @@
       <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47" t="s">
+      <c r="E8" s="51"/>
+      <c r="F8" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="58"/>
+      <c r="G8" s="52"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -4456,14 +4461,14 @@
       <c r="C9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47" t="s">
+      <c r="E9" s="51"/>
+      <c r="F9" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="58"/>
+      <c r="G9" s="52"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -4479,14 +4484,14 @@
       <c r="C10" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="46" t="s">
+      <c r="D10" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46" t="s">
+      <c r="E10" s="53"/>
+      <c r="F10" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="59"/>
+      <c r="G10" s="54"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -4511,10 +4516,10 @@
       <c r="N11" s="2"/>
     </row>
     <row r="12" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="50"/>
+      <c r="C12" s="48"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -4528,10 +4533,10 @@
       <c r="N12" s="2"/>
     </row>
     <row r="13" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="57"/>
+      <c r="C13" s="50"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -4560,128 +4565,128 @@
       <c r="N14" s="2"/>
     </row>
     <row r="15" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="50"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="48"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="56"/>
+      <c r="C16" s="57"/>
       <c r="D16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="47" t="s">
+      <c r="F16" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47" t="s">
+      <c r="G16" s="51"/>
+      <c r="H16" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47" t="s">
+      <c r="I16" s="51"/>
+      <c r="J16" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47" t="s">
+      <c r="K16" s="51"/>
+      <c r="L16" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="M16" s="47"/>
+      <c r="M16" s="51"/>
       <c r="N16" s="13"/>
       <c r="O16" s="1"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B17" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="56"/>
+      <c r="B17" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="57"/>
       <c r="D17" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="47" t="s">
+      <c r="F17" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47" t="s">
+      <c r="G17" s="51"/>
+      <c r="H17" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47" t="s">
+      <c r="I17" s="51"/>
+      <c r="J17" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47" t="s">
+      <c r="K17" s="51"/>
+      <c r="L17" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="M17" s="47"/>
+      <c r="M17" s="51"/>
       <c r="N17" s="13"/>
       <c r="O17" s="1"/>
     </row>
     <row r="18" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="54"/>
+      <c r="C18" s="55"/>
       <c r="D18" s="15" t="s">
         <v>35</v>
       </c>
       <c r="E18" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="46" t="s">
+      <c r="F18" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46" t="s">
+      <c r="G18" s="53"/>
+      <c r="H18" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46" t="s">
+      <c r="I18" s="53"/>
+      <c r="J18" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="K18" s="46"/>
-      <c r="L18" s="46" t="s">
+      <c r="K18" s="53"/>
+      <c r="L18" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="M18" s="46"/>
+      <c r="M18" s="53"/>
       <c r="N18" s="16"/>
       <c r="O18" s="1"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B19" s="51" t="s">
+      <c r="B19" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="47"/>
+      <c r="C19" s="51"/>
       <c r="D19" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="47" t="s">
+      <c r="E19" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47" t="s">
+      <c r="F19" s="51"/>
+      <c r="G19" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="H19" s="47"/>
+      <c r="H19" s="51"/>
       <c r="I19" s="2" t="s">
         <v>60</v>
       </c>
@@ -4702,21 +4707,21 @@
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="47"/>
+      <c r="C20" s="51"/>
       <c r="D20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="47" t="s">
+      <c r="E20" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47" t="s">
+      <c r="F20" s="51"/>
+      <c r="G20" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="H20" s="47"/>
+      <c r="H20" s="51"/>
       <c r="I20" s="2" t="s">
         <v>33</v>
       </c>
@@ -4737,21 +4742,21 @@
       </c>
     </row>
     <row r="21" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="52" t="s">
+      <c r="B21" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="46"/>
+      <c r="C21" s="53"/>
       <c r="D21" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="E21" s="46" t="s">
+      <c r="E21" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46" t="s">
+      <c r="F21" s="53"/>
+      <c r="G21" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="H21" s="46"/>
+      <c r="H21" s="53"/>
       <c r="I21" s="15" t="s">
         <v>38</v>
       </c>
@@ -4773,25 +4778,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="H17:I17"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="G19:H19"/>
@@ -4808,6 +4794,25 @@
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="L18:M18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="D10:E10"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4971,47 +4976,47 @@
   <sheetData>
     <row r="1" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="45"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="37"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="41" t="s">
+      <c r="C3" s="39"/>
+      <c r="D3" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="41"/>
+      <c r="E3" s="44"/>
       <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41" t="s">
+      <c r="H3" s="44"/>
+      <c r="I3" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41" t="s">
+      <c r="J3" s="44"/>
+      <c r="K3" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="L3" s="41"/>
+      <c r="L3" s="44"/>
       <c r="M3" s="1" t="s">
         <v>105</v>
       </c>
@@ -5023,29 +5028,29 @@
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B4" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="41" t="s">
+      <c r="B4" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="39"/>
+      <c r="D4" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="41"/>
+      <c r="E4" s="44"/>
       <c r="F4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41" t="s">
+      <c r="G4" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41" t="s">
+      <c r="J4" s="44"/>
+      <c r="K4" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="41"/>
+      <c r="L4" s="44"/>
       <c r="M4" s="1" t="s">
         <v>31</v>
       </c>
@@ -5057,29 +5062,29 @@
       </c>
     </row>
     <row r="5" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="39" t="s">
+      <c r="C5" s="41"/>
+      <c r="D5" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="39"/>
+      <c r="E5" s="42"/>
       <c r="F5" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="G5" s="39" t="s">
+      <c r="G5" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39" t="s">
+      <c r="H5" s="42"/>
+      <c r="I5" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39" t="s">
+      <c r="J5" s="42"/>
+      <c r="K5" s="42" t="s">
         <v>480</v>
       </c>
-      <c r="L5" s="39"/>
+      <c r="L5" s="42"/>
       <c r="M5" s="8" t="s">
         <v>106</v>
       </c>
@@ -5152,124 +5157,124 @@
     </row>
     <row r="9" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="45"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="37"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B11" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="41"/>
+      <c r="D11" s="44"/>
       <c r="E11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="41" t="s">
+      <c r="G11" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41" t="s">
+      <c r="H11" s="44"/>
+      <c r="I11" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41" t="s">
+      <c r="J11" s="44"/>
+      <c r="K11" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="L11" s="41"/>
+      <c r="L11" s="44"/>
       <c r="M11" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="N11" s="41" t="s">
+      <c r="N11" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="O11" s="42"/>
+      <c r="O11" s="45"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="41"/>
+      <c r="D12" s="44"/>
       <c r="E12" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="41" t="s">
+      <c r="G12" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41" t="s">
+      <c r="H12" s="44"/>
+      <c r="I12" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41" t="s">
+      <c r="J12" s="44"/>
+      <c r="K12" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="L12" s="41"/>
+      <c r="L12" s="44"/>
       <c r="M12" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="N12" s="41" t="s">
+      <c r="N12" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="O12" s="42"/>
+      <c r="O12" s="45"/>
     </row>
     <row r="13" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="41"/>
+      <c r="D13" s="44"/>
       <c r="E13" s="1" t="s">
         <v>110</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="G13" s="39" t="s">
+      <c r="G13" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39" t="s">
+      <c r="H13" s="42"/>
+      <c r="I13" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39" t="s">
+      <c r="J13" s="42"/>
+      <c r="K13" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="L13" s="39"/>
+      <c r="L13" s="42"/>
       <c r="M13" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="N13" s="39" t="s">
+      <c r="N13" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="O13" s="40"/>
+      <c r="O13" s="43"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
@@ -5290,10 +5295,10 @@
       <c r="C15" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="44" t="s">
         <v>191</v>
       </c>
-      <c r="E15" s="42"/>
+      <c r="E15" s="45"/>
     </row>
     <row r="16" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
@@ -5302,22 +5307,23 @@
       <c r="C16" s="33" t="s">
         <v>259</v>
       </c>
-      <c r="D16" s="39" t="s">
+      <c r="D16" s="42" t="s">
         <v>474</v>
       </c>
-      <c r="E16" s="40"/>
+      <c r="E16" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="B10:O10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
     <mergeCell ref="B2:O2"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="G12:H12"/>
@@ -5334,16 +5340,15 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="K3:L3"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="B10:O10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5354,8 +5359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B342374-A08D-4F28-B93B-FFABED33B303}">
   <dimension ref="B1:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5377,19 +5382,19 @@
   <sheetData>
     <row r="1" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="45"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="37"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
@@ -5413,10 +5418,10 @@
       <c r="H3" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="I3" s="41" t="s">
+      <c r="I3" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="J3" s="41"/>
+      <c r="J3" s="44"/>
       <c r="K3" s="1" t="s">
         <v>262</v>
       </c>
@@ -5446,10 +5451,10 @@
       <c r="H4" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="I4" s="41" t="s">
+      <c r="I4" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="41"/>
+      <c r="J4" s="44"/>
       <c r="K4" s="1" t="s">
         <v>228</v>
       </c>
@@ -5479,10 +5484,10 @@
       <c r="H5" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="I5" s="39" t="s">
+      <c r="I5" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="J5" s="39"/>
+      <c r="J5" s="42"/>
       <c r="K5" s="8" t="s">
         <v>263</v>
       </c>
@@ -5498,8 +5503,10 @@
         <v>476</v>
       </c>
       <c r="D6" s="64"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="E6" s="65" t="s">
+        <v>486</v>
+      </c>
+      <c r="F6" s="64"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -5511,12 +5518,14 @@
       <c r="B7" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="44" t="s">
         <v>191</v>
       </c>
-      <c r="D7" s="42"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="66" t="s">
+        <v>191</v>
+      </c>
+      <c r="F7" s="45"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -5528,12 +5537,14 @@
       <c r="B8" s="27" t="s">
         <v>475</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="42" t="s">
         <v>477</v>
       </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="67" t="s">
+        <v>487</v>
+      </c>
+      <c r="F8" s="43"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -5543,21 +5554,21 @@
     </row>
     <row r="9" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="45"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="37"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B11" s="11" t="s">
@@ -5581,14 +5592,14 @@
       <c r="H11" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="I11" s="41" t="s">
+      <c r="I11" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41" t="s">
+      <c r="J11" s="44"/>
+      <c r="K11" s="44" t="s">
         <v>150</v>
       </c>
-      <c r="L11" s="41"/>
+      <c r="L11" s="44"/>
       <c r="M11" s="1" t="s">
         <v>264</v>
       </c>
@@ -5618,14 +5629,14 @@
       <c r="H12" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="I12" s="41" t="s">
+      <c r="I12" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41" t="s">
+      <c r="J12" s="44"/>
+      <c r="K12" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="L12" s="41"/>
+      <c r="L12" s="44"/>
       <c r="M12" s="1" t="s">
         <v>228</v>
       </c>
@@ -5655,14 +5666,14 @@
       <c r="H13" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="I13" s="39" t="s">
+      <c r="I13" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39" t="s">
+      <c r="J13" s="42"/>
+      <c r="K13" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="L13" s="39"/>
+      <c r="L13" s="42"/>
       <c r="M13" s="8" t="s">
         <v>265</v>
       </c>
@@ -5692,10 +5703,10 @@
       <c r="B15" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="D15" s="42"/>
+      <c r="D15" s="45"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -5710,10 +5721,10 @@
       <c r="B16" s="27" t="s">
         <v>475</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="42" t="s">
         <v>479</v>
       </c>
-      <c r="D16" s="40"/>
+      <c r="D16" s="43"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -5726,13 +5737,13 @@
     </row>
     <row r="17" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="45"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="37"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="11" t="s">
@@ -5744,10 +5755,10 @@
       <c r="D19" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E19" s="41" t="s">
+      <c r="E19" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="F19" s="42"/>
+      <c r="F19" s="45"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="11" t="s">
@@ -5759,10 +5770,10 @@
       <c r="D20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="41" t="s">
+      <c r="E20" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="42"/>
+      <c r="F20" s="45"/>
     </row>
     <row r="21" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
@@ -5774,24 +5785,13 @@
       <c r="D21" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="E21" s="39" t="s">
+      <c r="E21" s="42" t="s">
         <v>156</v>
       </c>
-      <c r="F21" s="40"/>
+      <c r="F21" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="B10:N10"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
+  <mergeCells count="24">
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
@@ -5802,6 +5802,20 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B10:N10"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I3:J3"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5837,51 +5851,51 @@
   <sheetData>
     <row r="1" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="45"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="37"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="41" t="s">
+      <c r="C3" s="39"/>
+      <c r="D3" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="41"/>
+      <c r="E3" s="44"/>
       <c r="F3" t="s">
         <v>9</v>
       </c>
       <c r="G3" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="44" t="s">
         <v>252</v>
       </c>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41" t="s">
+      <c r="I3" s="44"/>
+      <c r="J3" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="K3" s="41"/>
-      <c r="L3" s="47" t="s">
+      <c r="K3" s="44"/>
+      <c r="L3" s="51" t="s">
         <v>253</v>
       </c>
-      <c r="M3" s="47"/>
+      <c r="M3" s="51"/>
       <c r="N3" s="2" t="s">
         <v>254</v>
       </c>
@@ -5893,32 +5907,32 @@
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B4" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="41" t="s">
+      <c r="B4" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="39"/>
+      <c r="D4" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="41"/>
+      <c r="E4" s="44"/>
       <c r="F4" t="s">
         <v>30</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="41" t="s">
+      <c r="H4" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41" t="s">
+      <c r="I4" s="44"/>
+      <c r="J4" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="41"/>
-      <c r="L4" s="47" t="s">
+      <c r="K4" s="44"/>
+      <c r="L4" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="47"/>
+      <c r="M4" s="51"/>
       <c r="N4" s="2" t="s">
         <v>86</v>
       </c>
@@ -5930,32 +5944,32 @@
       </c>
     </row>
     <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="39" t="s">
+      <c r="C5" s="41"/>
+      <c r="D5" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="39"/>
+      <c r="E5" s="42"/>
       <c r="F5" s="3" t="s">
         <v>34</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H5" s="39" t="s">
+      <c r="H5" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39" t="s">
+      <c r="I5" s="42"/>
+      <c r="J5" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="K5" s="39"/>
-      <c r="L5" s="46" t="s">
+      <c r="K5" s="42"/>
+      <c r="L5" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="M5" s="46"/>
+      <c r="M5" s="53"/>
       <c r="N5" s="15" t="s">
         <v>87</v>
       </c>
@@ -5989,7 +6003,7 @@
       <c r="B7" s="66" t="s">
         <v>228</v>
       </c>
-      <c r="C7" s="41"/>
+      <c r="C7" s="44"/>
       <c r="D7" s="70" t="s">
         <v>29</v>
       </c>
@@ -6008,7 +6022,7 @@
       <c r="B8" s="67" t="s">
         <v>248</v>
       </c>
-      <c r="C8" s="39"/>
+      <c r="C8" s="42"/>
       <c r="D8" s="72" t="s">
         <v>251</v>
       </c>
@@ -6025,23 +6039,23 @@
     </row>
     <row r="9" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="44"/>
-      <c r="P10" s="45"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="37"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B11" s="11" t="s">
@@ -6056,28 +6070,28 @@
       <c r="E11" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="F11" s="41" t="s">
+      <c r="F11" s="44" t="s">
         <v>189</v>
       </c>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41" t="s">
+      <c r="G11" s="44"/>
+      <c r="H11" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="I11" s="41"/>
+      <c r="I11" s="44"/>
       <c r="J11" s="1" t="s">
         <v>192</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="L11" s="41" t="s">
+      <c r="L11" s="44" t="s">
         <v>194</v>
       </c>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41" t="s">
+      <c r="M11" s="44"/>
+      <c r="N11" s="44" t="s">
         <v>195</v>
       </c>
-      <c r="O11" s="41"/>
+      <c r="O11" s="44"/>
       <c r="P11" s="13" t="s">
         <v>208</v>
       </c>
@@ -6095,28 +6109,28 @@
       <c r="E12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41" t="s">
+      <c r="F12" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="41"/>
+      <c r="I12" s="44"/>
       <c r="J12" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L12" s="41" t="s">
+      <c r="L12" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41" t="s">
+      <c r="M12" s="44"/>
+      <c r="N12" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="O12" s="41"/>
+      <c r="O12" s="44"/>
       <c r="P12" s="13" t="s">
         <v>103</v>
       </c>
@@ -6134,28 +6148,28 @@
       <c r="E13" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="F13" s="39" t="s">
+      <c r="F13" s="42" t="s">
         <v>207</v>
       </c>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39" t="s">
+      <c r="G13" s="42"/>
+      <c r="H13" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="I13" s="39"/>
+      <c r="I13" s="42"/>
       <c r="J13" s="8" t="s">
         <v>203</v>
       </c>
       <c r="K13" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="L13" s="39" t="s">
+      <c r="L13" s="42" t="s">
         <v>205</v>
       </c>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39" t="s">
+      <c r="M13" s="42"/>
+      <c r="N13" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="O13" s="39"/>
+      <c r="O13" s="42"/>
       <c r="P13" s="16" t="s">
         <v>209</v>
       </c>
@@ -6177,22 +6191,13 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="B10:P10"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
     <mergeCell ref="N11:O11"/>
     <mergeCell ref="N12:O12"/>
     <mergeCell ref="L11:M11"/>
@@ -6205,13 +6210,22 @@
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="H12:I12"/>
-    <mergeCell ref="B10:P10"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="L3:M3"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6239,11 +6253,11 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="35" t="s">
         <v>210</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="45"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="37"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
@@ -6280,10 +6294,10 @@
     </row>
     <row r="6" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="C7" s="45"/>
+      <c r="C7" s="37"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
@@ -6311,12 +6325,12 @@
     </row>
     <row r="11" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="45"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="37"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="11" t="s">
@@ -6362,14 +6376,14 @@
     </row>
     <row r="16" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="35" t="s">
         <v>213</v>
       </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="45"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="37"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="11" t="s">
@@ -6433,13 +6447,13 @@
     </row>
     <row r="21" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="35" t="s">
         <v>224</v>
       </c>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="45"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="37"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23" s="11" t="s">
@@ -6530,306 +6544,302 @@
   <sheetData>
     <row r="1" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="35" t="s">
         <v>268</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="45"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="37"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="44" t="s">
         <v>299</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41" t="s">
+      <c r="D3" s="44"/>
+      <c r="E3" s="44" t="s">
         <v>271</v>
       </c>
-      <c r="F3" s="41"/>
+      <c r="F3" s="44"/>
       <c r="G3" s="1" t="s">
         <v>272</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="I3" s="41" t="s">
+      <c r="I3" s="44" t="s">
         <v>278</v>
       </c>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41" t="s">
+      <c r="J3" s="44"/>
+      <c r="K3" s="44" t="s">
         <v>275</v>
       </c>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41" t="s">
+      <c r="L3" s="44"/>
+      <c r="M3" s="44" t="s">
         <v>276</v>
       </c>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41" t="s">
+      <c r="N3" s="44"/>
+      <c r="O3" s="44" t="s">
         <v>277</v>
       </c>
-      <c r="P3" s="42"/>
+      <c r="P3" s="45"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41" t="s">
+      <c r="C4" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44" t="s">
         <v>191</v>
       </c>
-      <c r="F4" s="41"/>
+      <c r="F4" s="44"/>
       <c r="G4" s="1" t="s">
         <v>161</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="I4" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41" t="s">
+      <c r="I4" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41" t="s">
+      <c r="L4" s="44"/>
+      <c r="M4" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41" t="s">
+      <c r="N4" s="44"/>
+      <c r="O4" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="42"/>
+      <c r="P4" s="45"/>
     </row>
     <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="42" t="s">
         <v>280</v>
       </c>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39" t="s">
+      <c r="D5" s="42"/>
+      <c r="E5" s="42" t="s">
         <v>281</v>
       </c>
-      <c r="F5" s="39"/>
+      <c r="F5" s="42"/>
       <c r="G5" s="8" t="s">
         <v>282</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="I5" s="39" t="s">
+      <c r="I5" s="42" t="s">
         <v>284</v>
       </c>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39" t="s">
+      <c r="J5" s="42"/>
+      <c r="K5" s="42" t="s">
         <v>285</v>
       </c>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39" t="s">
+      <c r="L5" s="42"/>
+      <c r="M5" s="42" t="s">
         <v>287</v>
       </c>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39" t="s">
+      <c r="N5" s="42"/>
+      <c r="O5" s="42" t="s">
         <v>286</v>
       </c>
-      <c r="P5" s="40"/>
+      <c r="P5" s="43"/>
     </row>
     <row r="6" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="35" t="s">
         <v>284</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="45"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="37"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="38" t="s">
         <v>278</v>
       </c>
-      <c r="C8" s="36"/>
+      <c r="C8" s="39"/>
       <c r="D8" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="E8" s="41" t="s">
+      <c r="E8" s="44" t="s">
         <v>288</v>
       </c>
-      <c r="F8" s="41"/>
+      <c r="F8" s="44"/>
       <c r="G8" s="1" t="s">
         <v>196</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="I8" s="41" t="s">
+      <c r="I8" s="44" t="s">
         <v>290</v>
       </c>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41" t="s">
+      <c r="J8" s="44"/>
+      <c r="K8" s="44" t="s">
         <v>292</v>
       </c>
-      <c r="L8" s="41"/>
-      <c r="M8" s="42"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="45"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B9" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="36"/>
+      <c r="B9" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="39"/>
       <c r="D9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="44" t="s">
         <v>289</v>
       </c>
-      <c r="F9" s="41"/>
+      <c r="F9" s="44"/>
       <c r="G9" s="1" t="s">
         <v>86</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="I9" s="41" t="s">
+      <c r="I9" s="44" t="s">
         <v>291</v>
       </c>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41" t="s">
+      <c r="J9" s="44"/>
+      <c r="K9" s="44" t="s">
         <v>293</v>
       </c>
-      <c r="L9" s="41"/>
-      <c r="M9" s="42"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="45"/>
     </row>
     <row r="10" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="40" t="s">
         <v>294</v>
       </c>
-      <c r="C10" s="38"/>
+      <c r="C10" s="41"/>
       <c r="D10" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="42" t="s">
         <v>295</v>
       </c>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39" t="s">
+      <c r="F10" s="42"/>
+      <c r="G10" s="42" t="s">
         <v>296</v>
       </c>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39" t="s">
+      <c r="H10" s="42"/>
+      <c r="I10" s="42" t="s">
         <v>297</v>
       </c>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="40"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="43"/>
     </row>
     <row r="11" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="35" t="s">
         <v>280</v>
       </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="45"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="37"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="38" t="s">
         <v>270</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="41" t="s">
+      <c r="C13" s="39"/>
+      <c r="D13" s="44" t="s">
         <v>300</v>
       </c>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41" t="s">
+      <c r="E13" s="44"/>
+      <c r="F13" s="44" t="s">
         <v>302</v>
       </c>
-      <c r="G13" s="41"/>
+      <c r="G13" s="44"/>
       <c r="H13" s="6" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B14" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="41" t="s">
+      <c r="B14" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="39"/>
+      <c r="D14" s="44" t="s">
         <v>191</v>
       </c>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41" t="s">
+      <c r="E14" s="44"/>
+      <c r="F14" s="44" t="s">
         <v>191</v>
       </c>
-      <c r="G14" s="41"/>
+      <c r="G14" s="44"/>
       <c r="H14" s="6" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="15" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="40" t="s">
         <v>298</v>
       </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="39" t="s">
+      <c r="C15" s="41"/>
+      <c r="D15" s="42" t="s">
         <v>301</v>
       </c>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39" t="s">
+      <c r="E15" s="42"/>
+      <c r="F15" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="39"/>
+      <c r="G15" s="42"/>
       <c r="H15" s="9" t="s">
         <v>282</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="B8:C8"/>
@@ -6846,17 +6856,21 @@
     <mergeCell ref="K9:M9"/>
     <mergeCell ref="B7:M7"/>
     <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:M10"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6884,16 +6898,16 @@
   <sheetData>
     <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="35" t="s">
         <v>303</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="45"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="37"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
@@ -6908,10 +6922,10 @@
       <c r="E3" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="44" t="s">
         <v>307</v>
       </c>
-      <c r="G3" s="41"/>
+      <c r="G3" s="44"/>
       <c r="H3" s="1" t="s">
         <v>309</v>
       </c>
@@ -6932,10 +6946,10 @@
       <c r="E4" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="F4" s="41" t="s">
+      <c r="F4" s="44" t="s">
         <v>308</v>
       </c>
-      <c r="G4" s="41"/>
+      <c r="G4" s="44"/>
       <c r="H4" s="1" t="s">
         <v>103</v>
       </c>
@@ -6956,10 +6970,10 @@
       <c r="E5" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="F5" s="39" t="s">
+      <c r="F5" s="42" t="s">
         <v>314</v>
       </c>
-      <c r="G5" s="39"/>
+      <c r="G5" s="42"/>
       <c r="H5" s="8" t="s">
         <v>315</v>
       </c>
